--- a/NonCodeResources/Catalogs/MessierCatalog/MessierDataSpreadsheet.xlsx
+++ b/NonCodeResources/Catalogs/MessierCatalog/MessierDataSpreadsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="852">
   <si>
     <t>NULL</t>
   </si>
@@ -204,15 +204,6 @@
     <t>M8</t>
   </si>
   <si>
-    <t xml:space="preserve"> ly</t>
-  </si>
-  <si>
-    <t>h m s</t>
-  </si>
-  <si>
-    <t>° ' \"</t>
-  </si>
-  <si>
     <t>M9</t>
   </si>
   <si>
@@ -948,9 +939,6 @@
     <t>NGC 6705</t>
   </si>
   <si>
-    <t xml:space="preserve"> x '</t>
-  </si>
-  <si>
     <t>12' x 12'</t>
   </si>
   <si>
@@ -1699,6 +1687,891 @@
   </si>
   <si>
     <t>NGC 6779</t>
+  </si>
+  <si>
+    <t>58,000 ly</t>
+  </si>
+  <si>
+    <t>13h 12m 55.3s</t>
+  </si>
+  <si>
+    <t>+18° 10' 09\"</t>
+  </si>
+  <si>
+    <t>87,400 ly</t>
+  </si>
+  <si>
+    <t>18h 55m 03.28s</t>
+  </si>
+  <si>
+    <t>-30° 28' 42.6\"</t>
+  </si>
+  <si>
+    <t>19' x 19'</t>
+  </si>
+  <si>
+    <t>17,600 ly</t>
+  </si>
+  <si>
+    <t>19h 39m 59.71s</t>
+  </si>
+  <si>
+    <t>-30° 57' 53.1\"</t>
+  </si>
+  <si>
+    <t>8.8' x 8.8'</t>
+  </si>
+  <si>
+    <t>32,900 ly</t>
+  </si>
+  <si>
+    <t>19h 16m 35.50s</t>
+  </si>
+  <si>
+    <t>+30° 11' 04.2\"</t>
+  </si>
+  <si>
+    <t>Ring Nebula</t>
+  </si>
+  <si>
+    <t>Barred Spiral Galaxy</t>
+  </si>
+  <si>
+    <t>NGC 6720</t>
+  </si>
+  <si>
+    <t>NGC 4579</t>
+  </si>
+  <si>
+    <t>NGC 4621</t>
+  </si>
+  <si>
+    <t>3.8' x 3.8'</t>
+  </si>
+  <si>
+    <t>18h 53m 35.079s</t>
+  </si>
+  <si>
+    <t>+33° 01' 45.03\"</t>
+  </si>
+  <si>
+    <t>5.9' x 4.7'</t>
+  </si>
+  <si>
+    <t>62 million ly</t>
+  </si>
+  <si>
+    <t>12h 37m 43.5s</t>
+  </si>
+  <si>
+    <t>+11° 49' 05\"</t>
+  </si>
+  <si>
+    <t>5.4' x 3.7'</t>
+  </si>
+  <si>
+    <t>60 million ly</t>
+  </si>
+  <si>
+    <t>12h 42m02.3 s</t>
+  </si>
+  <si>
+    <t>+11° 38' 49\"</t>
+  </si>
+  <si>
+    <t>NGC 4649, Arp 116</t>
+  </si>
+  <si>
+    <t>7.4' x 6'</t>
+  </si>
+  <si>
+    <t>55 million ly</t>
+  </si>
+  <si>
+    <t>12h 43m 39.6s</t>
+  </si>
+  <si>
+    <t>+11° 33' 09\"</t>
+  </si>
+  <si>
+    <t>Sunflower Galaxy</t>
+  </si>
+  <si>
+    <t>Black Eye Galaxy</t>
+  </si>
+  <si>
+    <t>NGC 4303</t>
+  </si>
+  <si>
+    <t>NGC 5055</t>
+  </si>
+  <si>
+    <t>NGC 4826</t>
+  </si>
+  <si>
+    <t>52.5 million ly</t>
+  </si>
+  <si>
+    <t>6.5' x 5.8'</t>
+  </si>
+  <si>
+    <t>12h 21m 54.9s</t>
+  </si>
+  <si>
+    <t>+04° 28' 25\"</t>
+  </si>
+  <si>
+    <t>NGC 6266, GCI 51</t>
+  </si>
+  <si>
+    <t>22,500 ly</t>
+  </si>
+  <si>
+    <t>17h 01m 12.6s</t>
+  </si>
+  <si>
+    <t>-30° 06' 44.5\"</t>
+  </si>
+  <si>
+    <t>12.6' x 7.2'</t>
+  </si>
+  <si>
+    <t>37 million ly</t>
+  </si>
+  <si>
+    <t>13h 15m 49.3s</t>
+  </si>
+  <si>
+    <t>+42° 01' 45\"</t>
+  </si>
+  <si>
+    <t>24 million ly</t>
+  </si>
+  <si>
+    <t>10.71' x 5.128'</t>
+  </si>
+  <si>
+    <t>12h 56m 43.7s</t>
+  </si>
+  <si>
+    <t>+21° 40' 58\"</t>
+  </si>
+  <si>
+    <t>Leo Triplet</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>NGC 3623</t>
+  </si>
+  <si>
+    <t>NGC 2682</t>
+  </si>
+  <si>
+    <t>8.7' x 2.5'</t>
+  </si>
+  <si>
+    <t>35 million ly</t>
+  </si>
+  <si>
+    <t>11h 18m 55.9s</t>
+  </si>
+  <si>
+    <t>+13° 05' 32\"</t>
+  </si>
+  <si>
+    <t>NGC 3627, Arp 16</t>
+  </si>
+  <si>
+    <t>9.1' x 4.2'</t>
+  </si>
+  <si>
+    <t>36 million ly</t>
+  </si>
+  <si>
+    <t>11h 20m 15s</t>
+  </si>
+  <si>
+    <t>+12° 59' 30\"</t>
+  </si>
+  <si>
+    <t>2,610 ly</t>
+  </si>
+  <si>
+    <t>08h 51m 24s</t>
+  </si>
+  <si>
+    <t>+11° 49' 00\"</t>
+  </si>
+  <si>
+    <t>NGC 4590, GCI 20</t>
+  </si>
+  <si>
+    <t>33,000 ly</t>
+  </si>
+  <si>
+    <t>12h 39m 28.01s</t>
+  </si>
+  <si>
+    <t>-26° 44' 34.9\"</t>
+  </si>
+  <si>
+    <t>NGC 6637, GCI 96</t>
+  </si>
+  <si>
+    <t>9.8' x 9.8'</t>
+  </si>
+  <si>
+    <t>29,700 ly</t>
+  </si>
+  <si>
+    <t>18h 31m 23.23s</t>
+  </si>
+  <si>
+    <t>-32° 20' 52.7\"</t>
+  </si>
+  <si>
+    <t>NGC 6681, GCI 101</t>
+  </si>
+  <si>
+    <t>8' x 8'</t>
+  </si>
+  <si>
+    <t>29,300 ly</t>
+  </si>
+  <si>
+    <t>18h 43m 12.64s</t>
+  </si>
+  <si>
+    <t>-32° 17' 30.8\"</t>
+  </si>
+  <si>
+    <t>Asterism</t>
+  </si>
+  <si>
+    <t>Sagitta</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>NGC 6994</t>
+  </si>
+  <si>
+    <t>NGC 628</t>
+  </si>
+  <si>
+    <t>NGC 6838, GCI 115</t>
+  </si>
+  <si>
+    <t>7.2' x 7.2'</t>
+  </si>
+  <si>
+    <t>12,000 ly</t>
+  </si>
+  <si>
+    <t>19h 53m 46.11s</t>
+  </si>
+  <si>
+    <t>+18° 46' 42.3\"</t>
+  </si>
+  <si>
+    <t>NGC 6981, GCI 118</t>
+  </si>
+  <si>
+    <t>5.9' x 5.9'</t>
+  </si>
+  <si>
+    <t>55,400 ly</t>
+  </si>
+  <si>
+    <t>20h 53m 27.91s</t>
+  </si>
+  <si>
+    <t>-12° 32' 13.4\"</t>
+  </si>
+  <si>
+    <t>2,500 ly</t>
+  </si>
+  <si>
+    <t>20h 58m 54s</t>
+  </si>
+  <si>
+    <t>-12° 38' 00\"</t>
+  </si>
+  <si>
+    <t>2.8' x 2.8'</t>
+  </si>
+  <si>
+    <t>10.5' x 9.5'</t>
+  </si>
+  <si>
+    <t>30 million ly</t>
+  </si>
+  <si>
+    <t>01h 36m 41.8s</t>
+  </si>
+  <si>
+    <t>+15° 47' 01\"</t>
+  </si>
+  <si>
+    <t>Little Dumbbell Nebula</t>
+  </si>
+  <si>
+    <t>Cetus A</t>
+  </si>
+  <si>
+    <t>Cetus</t>
+  </si>
+  <si>
+    <t>NGC 650, NGC 651</t>
+  </si>
+  <si>
+    <t>NGC 2068</t>
+  </si>
+  <si>
+    <t>NGC 6864, GCI 116</t>
+  </si>
+  <si>
+    <t>6.8' x 6.8'</t>
+  </si>
+  <si>
+    <t>67,500 ly</t>
+  </si>
+  <si>
+    <t>20h 06m 04.75s</t>
+  </si>
+  <si>
+    <t>-21° 55' 16.2\"</t>
+  </si>
+  <si>
+    <t>2.7' x 1.8'</t>
+  </si>
+  <si>
+    <t>01h 42m 24s</t>
+  </si>
+  <si>
+    <t>+51° 34' 31\"</t>
+  </si>
+  <si>
+    <t>NGC 1068, Arp 37</t>
+  </si>
+  <si>
+    <t>7.1' x 6'</t>
+  </si>
+  <si>
+    <t>47 million ly</t>
+  </si>
+  <si>
+    <t>02h 42m 40.7s</t>
+  </si>
+  <si>
+    <t>-00° 00' 48\"</t>
+  </si>
+  <si>
+    <t>Reflection Nebula</t>
+  </si>
+  <si>
+    <t>8' x 6'</t>
+  </si>
+  <si>
+    <t>05h 46m 42s</t>
+  </si>
+  <si>
+    <t>+00° 03' 00\"</t>
+  </si>
+  <si>
+    <t>Bode's Galaxy</t>
+  </si>
+  <si>
+    <t>Cigar Galaxy</t>
+  </si>
+  <si>
+    <t>Starburst Galaxy</t>
+  </si>
+  <si>
+    <t>Lepus</t>
+  </si>
+  <si>
+    <t>NGC 3031</t>
+  </si>
+  <si>
+    <t>NGC 1904, GCI 10</t>
+  </si>
+  <si>
+    <t>8.7' x 8.7'</t>
+  </si>
+  <si>
+    <t>41,000 ly</t>
+  </si>
+  <si>
+    <t>05h 24m 10.59s</t>
+  </si>
+  <si>
+    <t>-24° 31' 27.3\"</t>
+  </si>
+  <si>
+    <t>NGC 6093, GCI 39</t>
+  </si>
+  <si>
+    <t>10' x 10'</t>
+  </si>
+  <si>
+    <t>32,600 ly</t>
+  </si>
+  <si>
+    <t>16h 17m 02.51s</t>
+  </si>
+  <si>
+    <t>-22° 58' 30.4\"</t>
+  </si>
+  <si>
+    <t>11.8 million ly</t>
+  </si>
+  <si>
+    <t>26.9' x 14.1'</t>
+  </si>
+  <si>
+    <t>09h 55m 33.2s</t>
+  </si>
+  <si>
+    <t>+69° 03' 55\"</t>
+  </si>
+  <si>
+    <t>NGC 3034, Arp 337</t>
+  </si>
+  <si>
+    <t>11.2' x 4.3'</t>
+  </si>
+  <si>
+    <t>11.5 million ly</t>
+  </si>
+  <si>
+    <t>09h 55m 52.2s</t>
+  </si>
+  <si>
+    <t>+69° 40' 47\"</t>
+  </si>
+  <si>
+    <t>Southern Pinwheel Galaxy</t>
+  </si>
+  <si>
+    <t>Lenticular Galaxy</t>
+  </si>
+  <si>
+    <t>NGC 5236</t>
+  </si>
+  <si>
+    <t>NGC 4374</t>
+  </si>
+  <si>
+    <t>NGC 4382</t>
+  </si>
+  <si>
+    <t>NGC 4406</t>
+  </si>
+  <si>
+    <t>12.9' x 11.5'</t>
+  </si>
+  <si>
+    <t>14.7 million ly</t>
+  </si>
+  <si>
+    <t>13h 37m 00.9s</t>
+  </si>
+  <si>
+    <t>-29° 51' 57\"</t>
+  </si>
+  <si>
+    <t>6.5' x 5.6'</t>
+  </si>
+  <si>
+    <t>12h 25m 03.7s</t>
+  </si>
+  <si>
+    <t>+12° 53' 13\"</t>
+  </si>
+  <si>
+    <t>7.1' x 5.5'</t>
+  </si>
+  <si>
+    <t>12h 25m 24s</t>
+  </si>
+  <si>
+    <t>+18° 11' 28\"</t>
+  </si>
+  <si>
+    <t>8.9' x 5.8'</t>
+  </si>
+  <si>
+    <t>52 million ly</t>
+  </si>
+  <si>
+    <t>12h 26m 11.7s</t>
+  </si>
+  <si>
+    <t>+12° 56' 46\"</t>
+  </si>
+  <si>
+    <t>Virgo A</t>
+  </si>
+  <si>
+    <t>NGC 4501</t>
+  </si>
+  <si>
+    <t>NGC 4552</t>
+  </si>
+  <si>
+    <t>NGC 4486, Arp 152</t>
+  </si>
+  <si>
+    <t>53.5 million ly</t>
+  </si>
+  <si>
+    <t>8.3' x 6.6'</t>
+  </si>
+  <si>
+    <t>12h 30m 49.42s</t>
+  </si>
+  <si>
+    <t>+12° 23' 28\"</t>
+  </si>
+  <si>
+    <t>6.9' x 3.7'</t>
+  </si>
+  <si>
+    <t>12h 31m 59.2s</t>
+  </si>
+  <si>
+    <t>+14° 25' 14\"</t>
+  </si>
+  <si>
+    <t>5.1' x 4.7'</t>
+  </si>
+  <si>
+    <t>50 million ly</t>
+  </si>
+  <si>
+    <t>12h 35m 39.8s</t>
+  </si>
+  <si>
+    <t>+12° 33' 23\"</t>
+  </si>
+  <si>
+    <t>NGC 4569, Arp 76</t>
+  </si>
+  <si>
+    <t>9.5' x 4.4'</t>
+  </si>
+  <si>
+    <t>58.7 million ly</t>
+  </si>
+  <si>
+    <t>12h 36m 49.8s</t>
+  </si>
+  <si>
+    <t>+13° 09' 46\"</t>
+  </si>
+  <si>
+    <t>NGC 4548</t>
+  </si>
+  <si>
+    <t>NGC 2447</t>
+  </si>
+  <si>
+    <t>NGC 4736</t>
+  </si>
+  <si>
+    <t>5.4' x 4.3'</t>
+  </si>
+  <si>
+    <t>63 million ly</t>
+  </si>
+  <si>
+    <t>12h 35m 26.4s</t>
+  </si>
+  <si>
+    <t>+14° 29' 47\"</t>
+  </si>
+  <si>
+    <t>NGC 6341, GCI 59</t>
+  </si>
+  <si>
+    <t>26,700 ly</t>
+  </si>
+  <si>
+    <t>17h 17m 07.27s</t>
+  </si>
+  <si>
+    <t>+43° 08' 11.5\"</t>
+  </si>
+  <si>
+    <t>22' x 22'</t>
+  </si>
+  <si>
+    <t>3,600 ly</t>
+  </si>
+  <si>
+    <t>07h 44m 36s</t>
+  </si>
+  <si>
+    <t>-23° 52' 00\"</t>
+  </si>
+  <si>
+    <t>16 million ly</t>
+  </si>
+  <si>
+    <t>11.2' x 9.1'</t>
+  </si>
+  <si>
+    <t>12h 50m 53.1s</t>
+  </si>
+  <si>
+    <t>+41° 07' 14\"</t>
+  </si>
+  <si>
+    <t>Owl Nebula</t>
+  </si>
+  <si>
+    <t>NGC 3351</t>
+  </si>
+  <si>
+    <t>NGC 3368</t>
+  </si>
+  <si>
+    <t>NGC 3587</t>
+  </si>
+  <si>
+    <t>NGC 4192</t>
+  </si>
+  <si>
+    <t>3.1' x 2.9'</t>
+  </si>
+  <si>
+    <t>32.6 million ly</t>
+  </si>
+  <si>
+    <t>10h 43m 57.7s</t>
+  </si>
+  <si>
+    <t>+11° 42' 14\"</t>
+  </si>
+  <si>
+    <t>7.6' x 5.2'</t>
+  </si>
+  <si>
+    <t>31 million ly</t>
+  </si>
+  <si>
+    <t>10h 46m 45.7s</t>
+  </si>
+  <si>
+    <t>+11° 49' 12\"</t>
+  </si>
+  <si>
+    <t>3.4' x 3.3'</t>
+  </si>
+  <si>
+    <t>2,600 ly</t>
+  </si>
+  <si>
+    <t>11h 14m 48s</t>
+  </si>
+  <si>
+    <t>+55° 01' 00\"</t>
+  </si>
+  <si>
+    <t>9.8' x 2.8'</t>
+  </si>
+  <si>
+    <t>54.1 million ly</t>
+  </si>
+  <si>
+    <t>12h 13m 48.3s</t>
+  </si>
+  <si>
+    <t>+14° 54' 01\"</t>
+  </si>
+  <si>
+    <t>Pinwheel Galaxy</t>
+  </si>
+  <si>
+    <t>NGC 4254</t>
+  </si>
+  <si>
+    <t>NGC 4321</t>
+  </si>
+  <si>
+    <t>5.4' x 4.7'</t>
+  </si>
+  <si>
+    <t>50.2 million ly</t>
+  </si>
+  <si>
+    <t>12h 18m 49.6s</t>
+  </si>
+  <si>
+    <t>+14° 24' 59\"</t>
+  </si>
+  <si>
+    <t>7.4' x 6.3'</t>
+  </si>
+  <si>
+    <t>12h 22m 54.9s</t>
+  </si>
+  <si>
+    <t>+15° 49' 21\"</t>
+  </si>
+  <si>
+    <t>NGC 5457, Arp 26</t>
+  </si>
+  <si>
+    <t>28.8' x 26.9'</t>
+  </si>
+  <si>
+    <t>20.9 million ly</t>
+  </si>
+  <si>
+    <t>14h 03m 12.6s</t>
+  </si>
+  <si>
+    <t>+54° 20' 57\"</t>
+  </si>
+  <si>
+    <t>NGC 5866</t>
+  </si>
+  <si>
+    <t>Spindle Galaxy</t>
+  </si>
+  <si>
+    <t>4.7' x 1.9'</t>
+  </si>
+  <si>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>15h 06m 29.5s</t>
+  </si>
+  <si>
+    <t>+55° 45' 48\"</t>
+  </si>
+  <si>
+    <t>Sombrero Galaxy</t>
+  </si>
+  <si>
+    <t>NGC 581</t>
+  </si>
+  <si>
+    <t>NGC 4594</t>
+  </si>
+  <si>
+    <t>NGC 3379</t>
+  </si>
+  <si>
+    <t>NGC 4258</t>
+  </si>
+  <si>
+    <t>6.0' x 6.0'</t>
+  </si>
+  <si>
+    <t>01h 33m 12s</t>
+  </si>
+  <si>
+    <t>+60° 42' 00\"</t>
+  </si>
+  <si>
+    <t>8.7' x 3.5'</t>
+  </si>
+  <si>
+    <t>29.3 million ly</t>
+  </si>
+  <si>
+    <t>12h 39m 59.4s</t>
+  </si>
+  <si>
+    <t>-11° 37' 23\"</t>
+  </si>
+  <si>
+    <t>5.4' x 4.8'</t>
+  </si>
+  <si>
+    <t>32 million ly</t>
+  </si>
+  <si>
+    <t>10h 47m 49.6s</t>
+  </si>
+  <si>
+    <t>+12° 34' 54\"</t>
+  </si>
+  <si>
+    <t>18.6' x 7.2'</t>
+  </si>
+  <si>
+    <t>23.7 million ly</t>
+  </si>
+  <si>
+    <t>12h 18m 57.5s</t>
+  </si>
+  <si>
+    <t>+47° 18' 14\"</t>
+  </si>
+  <si>
+    <t>NGC 3556</t>
+  </si>
+  <si>
+    <t>NGC 3992</t>
+  </si>
+  <si>
+    <t>NGC 205</t>
+  </si>
+  <si>
+    <t>NGC 6171, GCI 44</t>
+  </si>
+  <si>
+    <t>20,900 ly</t>
+  </si>
+  <si>
+    <t>16h 32m 31.91s</t>
+  </si>
+  <si>
+    <t>-13° 03' 13.1\"</t>
+  </si>
+  <si>
+    <t>8.7' x 2.2'</t>
+  </si>
+  <si>
+    <t>14.1 million ly</t>
+  </si>
+  <si>
+    <t>11h 11m 31s</t>
+  </si>
+  <si>
+    <t>+55° 40' 27\"</t>
+  </si>
+  <si>
+    <t>83.5 million ly</t>
+  </si>
+  <si>
+    <t>7.6' x 4.7'</t>
+  </si>
+  <si>
+    <t>11h 57m 36s</t>
+  </si>
+  <si>
+    <t>+53° 22' 28\"</t>
+  </si>
+  <si>
+    <t>21.9' x 11'</t>
+  </si>
+  <si>
+    <t>2.69 million ly</t>
+  </si>
+  <si>
+    <t>00h 40m 22.1s</t>
+  </si>
+  <si>
+    <t>+41° 41' 07\"</t>
   </si>
 </sst>
 </file>
@@ -2038,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2066,82 +2939,82 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" t="s">
         <v>177</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>180</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>183</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>184</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>185</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>186</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>187</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>188</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>189</v>
-      </c>
-      <c r="X1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -2161,7 +3034,7 @@
         <v>8.4</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -2573,10 +3446,10 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
@@ -2653,10 +3526,10 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -2712,40 +3585,43 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
         <v>298</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="H9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J9" t="s">
-        <v>301</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="L9" t="s">
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
@@ -2786,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2798,31 +3674,34 @@
         <v>8.42</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L10" t="s">
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
@@ -2863,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2875,31 +3754,34 @@
         <v>6.4</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L11" t="s">
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
@@ -2940,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -2952,31 +3834,34 @@
         <v>6.3</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
@@ -3017,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -3029,31 +3914,34 @@
         <v>7.68</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L13" t="s">
         <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P13" t="s">
         <v>0</v>
@@ -3094,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -3106,31 +3994,34 @@
         <v>5.8</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L14" t="s">
         <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
@@ -3171,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -3183,31 +4074,34 @@
         <v>8.32</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P15" t="s">
         <v>0</v>
@@ -3248,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -3260,31 +4154,34 @@
         <v>6.2</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>319</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L16" t="s">
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s">
         <v>0</v>
@@ -3325,43 +4222,46 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
       <c r="J17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s">
         <v>0</v>
@@ -3402,43 +4302,46 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L18" t="s">
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s">
         <v>0</v>
@@ -3479,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -3491,31 +4394,34 @@
         <v>7.5</v>
       </c>
       <c r="F19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L19" t="s">
         <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s">
         <v>0</v>
@@ -3556,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -3568,31 +4474,34 @@
         <v>7.47</v>
       </c>
       <c r="F20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L20" t="s">
         <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s">
         <v>0</v>
@@ -3633,43 +4542,46 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E21" s="3">
         <v>6.3</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L21" t="s">
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s">
         <v>0</v>
@@ -3710,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -3722,31 +4634,34 @@
         <v>6.5</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P22" t="s">
         <v>0</v>
@@ -3787,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -3799,31 +4714,34 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H23" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L23" t="s">
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P23" t="s">
         <v>0</v>
@@ -3864,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -3876,31 +4794,34 @@
         <v>6.9</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H24" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
       <c r="M24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P24" t="s">
         <v>0</v>
@@ -3941,43 +4862,46 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E25" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H25" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L25" t="s">
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P25" t="s">
         <v>0</v>
@@ -4018,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -4030,31 +4954,34 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L26" t="s">
         <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P26" t="s">
         <v>0</v>
@@ -4095,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -4107,31 +5034,34 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H27" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L27" t="s">
         <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P27" t="s">
         <v>0</v>
@@ -4172,43 +5102,46 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E28" s="3">
         <v>7.5</v>
       </c>
       <c r="F28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G28" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H28" t="s">
-        <v>409</v>
+        <v>405</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L28" t="s">
         <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P28" t="s">
         <v>0</v>
@@ -4249,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -4261,31 +5194,34 @@
         <v>7.66</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H29" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L29" t="s">
         <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P29" t="s">
         <v>0</v>
@@ -4326,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -4338,31 +5274,34 @@
         <v>7.1</v>
       </c>
       <c r="F30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G30" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H30" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L30" t="s">
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P30" t="s">
         <v>0</v>
@@ -4403,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -4415,31 +5354,34 @@
         <v>7.7</v>
       </c>
       <c r="F31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H31" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L31" t="s">
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P31" t="s">
         <v>0</v>
@@ -4480,43 +5422,46 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E32" s="3">
         <v>3.44</v>
       </c>
       <c r="F32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G32" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" t="s">
+        <v>435</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
         <v>438</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="J32" t="s">
-        <v>442</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="L32" t="s">
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P32" t="s">
         <v>0</v>
@@ -4557,43 +5502,46 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E33" s="3">
         <v>8.08</v>
       </c>
       <c r="F33" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G33" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H33" t="s">
-        <v>439</v>
+        <v>435</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L33" t="s">
         <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P33" t="s">
         <v>0</v>
@@ -4634,43 +5582,46 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E34" s="3">
         <v>5.72</v>
       </c>
       <c r="F34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G34" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H34" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L34" t="s">
         <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P34" t="s">
         <v>0</v>
@@ -4711,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -4723,31 +5674,34 @@
         <v>5.5</v>
       </c>
       <c r="F35" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G35" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H35" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L35" t="s">
         <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P35" t="s">
         <v>0</v>
@@ -4788,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -4800,31 +5754,34 @@
         <v>5.3</v>
       </c>
       <c r="F36" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G36" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H36" t="s">
-        <v>458</v>
+        <v>454</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L36" t="s">
         <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P36" t="s">
         <v>0</v>
@@ -4865,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -4877,31 +5834,34 @@
         <v>6.3</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L37" t="s">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P37" t="s">
         <v>0</v>
@@ -4942,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -4954,31 +5914,34 @@
         <v>6.2</v>
       </c>
       <c r="F38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G38" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H38" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L38" t="s">
         <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P38" t="s">
         <v>0</v>
@@ -5019,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -5031,31 +5994,34 @@
         <v>7.4</v>
       </c>
       <c r="F39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H39" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L39" t="s">
         <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P39" t="s">
         <v>0</v>
@@ -5096,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -5108,31 +6074,34 @@
         <v>5.5</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
         <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L40" t="s">
         <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P40" t="s">
         <v>0</v>
@@ -5173,31 +6142,34 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E41" s="3">
         <v>9.65</v>
       </c>
       <c r="F41" t="s">
+        <v>480</v>
+      </c>
+      <c r="G41" t="s">
+        <v>482</v>
+      </c>
+      <c r="H41" t="s">
+        <v>475</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>483</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="G41" t="s">
-        <v>486</v>
-      </c>
-      <c r="H41" t="s">
-        <v>479</v>
-      </c>
-      <c r="J41" t="s">
-        <v>487</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="L41" t="s">
         <v>9</v>
@@ -5206,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P41" t="s">
         <v>0</v>
@@ -5250,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -5262,31 +6234,34 @@
         <v>4.5</v>
       </c>
       <c r="F42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G42" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H42" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L42" t="s">
         <v>9</v>
       </c>
       <c r="M42" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P42" t="s">
         <v>0</v>
@@ -5327,43 +6302,46 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D43" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G43" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H43" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L43" t="s">
         <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P43" t="s">
         <v>0</v>
@@ -5404,43 +6382,46 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D44" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E44" s="3">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L44" t="s">
         <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P44" t="s">
         <v>0</v>
@@ -5481,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -5493,31 +6474,34 @@
         <v>3.7</v>
       </c>
       <c r="F45" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H45" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L45" t="s">
         <v>9</v>
       </c>
       <c r="M45" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P45" t="s">
         <v>0</v>
@@ -5558,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -5570,28 +6554,34 @@
         <v>1.6</v>
       </c>
       <c r="F46" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G46" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
       </c>
+      <c r="I46" t="s">
+        <v>6</v>
+      </c>
       <c r="J46" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L46" t="s">
         <v>9</v>
       </c>
+      <c r="M46" t="s">
+        <v>0</v>
+      </c>
       <c r="N46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P46" t="s">
         <v>0</v>
@@ -5632,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -5644,31 +6634,34 @@
         <v>6.1</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H47" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L47" t="s">
         <v>9</v>
       </c>
       <c r="M47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P47" t="s">
         <v>0</v>
@@ -5709,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -5721,31 +6714,34 @@
         <v>4.2</v>
       </c>
       <c r="F48" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L48" t="s">
         <v>9</v>
       </c>
       <c r="M48" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P48" t="s">
         <v>0</v>
@@ -5786,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -5798,31 +6794,34 @@
         <v>5.5</v>
       </c>
       <c r="F49" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G49" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H49" t="s">
-        <v>521</v>
+        <v>517</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L49" t="s">
         <v>9</v>
       </c>
       <c r="M49" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P49" t="s">
         <v>0</v>
@@ -5863,43 +6862,46 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E50" s="3">
         <v>9.4</v>
       </c>
       <c r="F50" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G50" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H50" t="s">
-        <v>522</v>
+        <v>518</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L50" t="s">
         <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P50" t="s">
         <v>0</v>
@@ -5940,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -5952,31 +6954,34 @@
         <v>5.9</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G51" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H51" t="s">
-        <v>546</v>
+        <v>542</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L51" t="s">
         <v>9</v>
       </c>
       <c r="M51" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P51" t="s">
         <v>0</v>
@@ -6017,43 +7022,46 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E52" s="3">
         <v>8.4</v>
       </c>
       <c r="F52" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G52" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
       </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
       <c r="J52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L52" t="s">
         <v>9</v>
       </c>
       <c r="M52" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P52" t="s">
         <v>0</v>
@@ -6094,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -6106,31 +7114,34 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H53" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="I53" t="s">
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L53" t="s">
         <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P53" t="s">
         <v>0</v>
@@ -6171,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -6179,32 +7190,38 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>310</v>
+      <c r="E54" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>557</v>
       </c>
       <c r="H54" t="s">
-        <v>555</v>
+        <v>551</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>64</v>
+        <v>559</v>
       </c>
       <c r="L54" t="s">
         <v>9</v>
       </c>
       <c r="M54" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P54" t="s">
         <v>0</v>
@@ -6245,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -6253,32 +7270,38 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>310</v>
+      <c r="E55" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F55" t="s">
+        <v>307</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>560</v>
       </c>
       <c r="H55" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
       </c>
       <c r="J55" t="s">
-        <v>63</v>
+        <v>561</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>64</v>
+        <v>562</v>
       </c>
       <c r="L55" t="s">
         <v>9</v>
       </c>
       <c r="M55" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P55" t="s">
         <v>0</v>
@@ -6319,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -6327,32 +7350,38 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>310</v>
+      <c r="E56" s="3">
+        <v>7.42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>563</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="H56" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I56" t="s">
+        <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>64</v>
+        <v>566</v>
       </c>
       <c r="L56" t="s">
         <v>9</v>
       </c>
       <c r="M56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P56" t="s">
         <v>0</v>
@@ -6393,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -6401,32 +7430,38 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>310</v>
+      <c r="E57" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F57" t="s">
+        <v>567</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>568</v>
       </c>
       <c r="H57" t="s">
-        <v>556</v>
+        <v>552</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>63</v>
+        <v>569</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>64</v>
+        <v>570</v>
       </c>
       <c r="L57" t="s">
         <v>9</v>
       </c>
       <c r="M57" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P57" t="s">
         <v>0</v>
@@ -6467,28 +7502,46 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>310</v>
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>571</v>
+      </c>
+      <c r="D58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F58" t="s">
+        <v>576</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>487</v>
+      </c>
+      <c r="H58" t="s">
+        <v>552</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>63</v>
+        <v>577</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>64</v>
+        <v>578</v>
       </c>
       <c r="L58" t="s">
         <v>9</v>
       </c>
+      <c r="M58" t="s">
+        <v>573</v>
+      </c>
       <c r="N58" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O58" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P58" t="s">
         <v>0</v>
@@ -6529,28 +7582,46 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>310</v>
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>572</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>579</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>580</v>
+      </c>
+      <c r="H59" t="s">
+        <v>518</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>63</v>
+        <v>581</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>64</v>
+        <v>582</v>
       </c>
       <c r="L59" t="s">
         <v>9</v>
       </c>
+      <c r="M59" t="s">
+        <v>574</v>
+      </c>
       <c r="N59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P59" t="s">
         <v>0</v>
@@ -6591,28 +7662,46 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>310</v>
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>515</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>583</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>584</v>
+      </c>
+      <c r="H60" t="s">
+        <v>518</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>63</v>
+        <v>585</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>64</v>
+        <v>586</v>
       </c>
       <c r="L60" t="s">
         <v>9</v>
       </c>
+      <c r="M60" t="s">
+        <v>575</v>
+      </c>
       <c r="N60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P60" t="s">
         <v>0</v>
@@ -6653,28 +7742,46 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>310</v>
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>515</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F61" t="s">
+        <v>588</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>589</v>
+      </c>
+      <c r="H61" t="s">
+        <v>518</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>63</v>
+        <v>590</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>64</v>
+        <v>591</v>
       </c>
       <c r="L61" t="s">
         <v>9</v>
       </c>
+      <c r="M61" t="s">
+        <v>587</v>
+      </c>
       <c r="N61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P61" t="s">
         <v>0</v>
@@ -6715,28 +7822,46 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>310</v>
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10.18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>598</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>597</v>
+      </c>
+      <c r="H62" t="s">
+        <v>518</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>63</v>
+        <v>599</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>64</v>
+        <v>600</v>
       </c>
       <c r="L62" t="s">
         <v>9</v>
       </c>
+      <c r="M62" t="s">
+        <v>594</v>
+      </c>
       <c r="N62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P62" t="s">
         <v>0</v>
@@ -6777,28 +7902,46 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>310</v>
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="F63" t="s">
+        <v>400</v>
       </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>602</v>
+      </c>
+      <c r="H63" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63" t="s">
+        <v>35</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>603</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>64</v>
+        <v>604</v>
       </c>
       <c r="L63" t="s">
         <v>9</v>
       </c>
+      <c r="M63" t="s">
+        <v>601</v>
+      </c>
       <c r="N63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P63" t="s">
         <v>0</v>
@@ -6839,28 +7982,46 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>310</v>
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
+      <c r="D64" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F64" t="s">
+        <v>605</v>
       </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>606</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>63</v>
+        <v>607</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>64</v>
+        <v>608</v>
       </c>
       <c r="L64" t="s">
         <v>9</v>
       </c>
+      <c r="M64" t="s">
+        <v>595</v>
+      </c>
       <c r="N64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P64" t="s">
         <v>0</v>
@@ -6901,28 +8062,46 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>593</v>
+      </c>
+      <c r="D65" t="s">
+        <v>428</v>
+      </c>
+      <c r="E65" s="3">
+        <v>9.36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>610</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>609</v>
+      </c>
+      <c r="H65" t="s">
+        <v>551</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>63</v>
+        <v>611</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>64</v>
+        <v>612</v>
       </c>
       <c r="L65" t="s">
         <v>9</v>
       </c>
+      <c r="M65" t="s">
+        <v>596</v>
+      </c>
       <c r="N65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P65" t="s">
         <v>0</v>
@@ -6963,28 +8142,46 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>310</v>
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>613</v>
+      </c>
+      <c r="D66" t="s">
+        <v>572</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10.25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>617</v>
       </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>618</v>
+      </c>
+      <c r="H66" t="s">
+        <v>614</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>619</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>64</v>
+        <v>620</v>
       </c>
       <c r="L66" t="s">
         <v>9</v>
       </c>
+      <c r="M66" t="s">
+        <v>615</v>
+      </c>
       <c r="N66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P66" t="s">
         <v>0</v>
@@ -7025,28 +8222,46 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>310</v>
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>613</v>
+      </c>
+      <c r="D67" t="s">
+        <v>572</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>622</v>
       </c>
       <c r="G67" t="s">
-        <v>62</v>
+        <v>623</v>
+      </c>
+      <c r="H67" t="s">
+        <v>614</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>63</v>
+        <v>624</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>64</v>
+        <v>625</v>
       </c>
       <c r="L67" t="s">
         <v>9</v>
       </c>
+      <c r="M67" t="s">
+        <v>621</v>
+      </c>
       <c r="N67" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O67" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P67" t="s">
         <v>0</v>
@@ -7087,28 +8302,46 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>310</v>
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>626</v>
+      </c>
+      <c r="H68" t="s">
+        <v>496</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>63</v>
+        <v>627</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>64</v>
+        <v>628</v>
       </c>
       <c r="L68" t="s">
         <v>9</v>
       </c>
+      <c r="M68" t="s">
+        <v>616</v>
+      </c>
       <c r="N68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P68" t="s">
         <v>0</v>
@@ -7149,28 +8382,46 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>310</v>
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3">
+        <v>9.67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>630</v>
+      </c>
+      <c r="H69" t="s">
+        <v>517</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>63</v>
+        <v>631</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>64</v>
+        <v>632</v>
       </c>
       <c r="L69" t="s">
         <v>9</v>
       </c>
+      <c r="M69" t="s">
+        <v>629</v>
+      </c>
       <c r="N69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P69" t="s">
         <v>0</v>
@@ -7211,28 +8462,46 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>310</v>
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F70" t="s">
+        <v>634</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>635</v>
+      </c>
+      <c r="H70" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
       </c>
       <c r="J70" t="s">
-        <v>63</v>
+        <v>636</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>64</v>
+        <v>637</v>
       </c>
       <c r="L70" t="s">
         <v>9</v>
       </c>
+      <c r="M70" t="s">
+        <v>633</v>
+      </c>
       <c r="N70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P70" t="s">
         <v>0</v>
@@ -7273,28 +8542,46 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>310</v>
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3">
+        <v>9.06</v>
+      </c>
+      <c r="F71" t="s">
+        <v>639</v>
       </c>
       <c r="G71" t="s">
-        <v>62</v>
+        <v>640</v>
+      </c>
+      <c r="H71" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
       </c>
       <c r="J71" t="s">
-        <v>63</v>
+        <v>641</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>64</v>
+        <v>642</v>
       </c>
       <c r="L71" t="s">
         <v>9</v>
       </c>
+      <c r="M71" t="s">
+        <v>638</v>
+      </c>
       <c r="N71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P71" t="s">
         <v>0</v>
@@ -7335,28 +8622,46 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>310</v>
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>649</v>
       </c>
       <c r="G72" t="s">
-        <v>62</v>
+        <v>650</v>
+      </c>
+      <c r="H72" t="s">
+        <v>644</v>
+      </c>
+      <c r="I72" t="s">
+        <v>35</v>
       </c>
       <c r="J72" t="s">
-        <v>63</v>
+        <v>651</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>64</v>
+        <v>652</v>
       </c>
       <c r="L72" t="s">
         <v>9</v>
       </c>
+      <c r="M72" t="s">
+        <v>648</v>
+      </c>
       <c r="N72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P72" t="s">
         <v>0</v>
@@ -7397,28 +8702,46 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>310</v>
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F73" t="s">
+        <v>654</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
+        <v>655</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>63</v>
+        <v>656</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>64</v>
+        <v>657</v>
       </c>
       <c r="L73" t="s">
         <v>9</v>
       </c>
+      <c r="M73" t="s">
+        <v>653</v>
+      </c>
       <c r="N73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P73" t="s">
         <v>0</v>
@@ -7459,28 +8782,46 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>310</v>
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>643</v>
+      </c>
+      <c r="E74" s="3">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>661</v>
       </c>
       <c r="G74" t="s">
-        <v>62</v>
+        <v>658</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>63</v>
+        <v>659</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>64</v>
+        <v>660</v>
       </c>
       <c r="L74" t="s">
         <v>9</v>
       </c>
+      <c r="M74" t="s">
+        <v>646</v>
+      </c>
       <c r="N74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P74" t="s">
         <v>0</v>
@@ -7521,28 +8862,46 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>310</v>
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>428</v>
+      </c>
+      <c r="E75" s="3">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>662</v>
       </c>
       <c r="G75" t="s">
-        <v>62</v>
+        <v>663</v>
+      </c>
+      <c r="H75" t="s">
+        <v>645</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>63</v>
+        <v>664</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>64</v>
+        <v>665</v>
       </c>
       <c r="L75" t="s">
         <v>9</v>
       </c>
+      <c r="M75" t="s">
+        <v>647</v>
+      </c>
       <c r="N75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P75" t="s">
         <v>0</v>
@@ -7583,28 +8942,46 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>310</v>
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>672</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>673</v>
+      </c>
+      <c r="H76" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>674</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>64</v>
+        <v>675</v>
       </c>
       <c r="L76" t="s">
         <v>9</v>
       </c>
+      <c r="M76" t="s">
+        <v>671</v>
+      </c>
       <c r="N76" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O76" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P76" t="s">
         <v>0</v>
@@ -7645,28 +9022,46 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>310</v>
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>666</v>
+      </c>
+      <c r="D77" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>676</v>
       </c>
       <c r="G77" t="s">
-        <v>62</v>
+        <v>658</v>
+      </c>
+      <c r="H77" t="s">
+        <v>437</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
+        <v>677</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>64</v>
+        <v>678</v>
       </c>
       <c r="L77" t="s">
         <v>9</v>
       </c>
+      <c r="M77" t="s">
+        <v>669</v>
+      </c>
       <c r="N77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P77" t="s">
         <v>0</v>
@@ -7707,28 +9102,46 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>310</v>
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>667</v>
+      </c>
+      <c r="D78" t="s">
+        <v>428</v>
+      </c>
+      <c r="E78" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>680</v>
       </c>
       <c r="G78" t="s">
-        <v>62</v>
+        <v>681</v>
+      </c>
+      <c r="H78" t="s">
+        <v>668</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>63</v>
+        <v>682</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>64</v>
+        <v>683</v>
       </c>
       <c r="L78" t="s">
         <v>9</v>
       </c>
+      <c r="M78" t="s">
+        <v>679</v>
+      </c>
       <c r="N78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P78" t="s">
         <v>0</v>
@@ -7769,28 +9182,46 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>310</v>
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>684</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F79" t="s">
+        <v>685</v>
       </c>
       <c r="G79" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="H79" t="s">
+        <v>495</v>
+      </c>
+      <c r="I79" t="s">
+        <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>63</v>
+        <v>686</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>64</v>
+        <v>687</v>
       </c>
       <c r="L79" t="s">
         <v>9</v>
       </c>
+      <c r="M79" t="s">
+        <v>670</v>
+      </c>
       <c r="N79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P79" t="s">
         <v>0</v>
@@ -7831,28 +9262,46 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>310</v>
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="3">
+        <v>8.56</v>
+      </c>
+      <c r="F80" t="s">
+        <v>694</v>
       </c>
       <c r="G80" t="s">
-        <v>62</v>
+        <v>695</v>
+      </c>
+      <c r="H80" t="s">
+        <v>691</v>
+      </c>
+      <c r="I80" t="s">
+        <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>63</v>
+        <v>696</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>64</v>
+        <v>697</v>
       </c>
       <c r="L80" t="s">
         <v>9</v>
       </c>
+      <c r="M80" t="s">
+        <v>693</v>
+      </c>
       <c r="N80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P80" t="s">
         <v>0</v>
@@ -7893,28 +9342,46 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>310</v>
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>699</v>
       </c>
       <c r="G81" t="s">
-        <v>62</v>
+        <v>700</v>
+      </c>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
+        <v>35</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>701</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>64</v>
+        <v>702</v>
       </c>
       <c r="L81" t="s">
         <v>9</v>
       </c>
+      <c r="M81" t="s">
+        <v>698</v>
+      </c>
       <c r="N81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P81" t="s">
         <v>0</v>
@@ -7955,28 +9422,46 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>310</v>
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>688</v>
+      </c>
+      <c r="D82" t="s">
+        <v>428</v>
+      </c>
+      <c r="E82" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="F82" t="s">
+        <v>704</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>703</v>
+      </c>
+      <c r="H82" t="s">
+        <v>475</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>705</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>64</v>
+        <v>706</v>
       </c>
       <c r="L82" t="s">
         <v>9</v>
       </c>
+      <c r="M82" t="s">
+        <v>692</v>
+      </c>
       <c r="N82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P82" t="s">
         <v>0</v>
@@ -8017,28 +9502,46 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>310</v>
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>689</v>
+      </c>
+      <c r="D83" t="s">
+        <v>690</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="F83" t="s">
+        <v>708</v>
       </c>
       <c r="G83" t="s">
-        <v>62</v>
+        <v>709</v>
+      </c>
+      <c r="H83" t="s">
+        <v>475</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>710</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>64</v>
+        <v>711</v>
       </c>
       <c r="L83" t="s">
         <v>9</v>
       </c>
+      <c r="M83" t="s">
+        <v>707</v>
+      </c>
       <c r="N83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P83" t="s">
         <v>0</v>
@@ -8079,28 +9582,46 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>310</v>
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>712</v>
+      </c>
+      <c r="D84" t="s">
+        <v>572</v>
+      </c>
+      <c r="E84" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="F84" t="s">
+        <v>718</v>
       </c>
       <c r="G84" t="s">
-        <v>62</v>
+        <v>719</v>
+      </c>
+      <c r="H84" t="s">
+        <v>517</v>
+      </c>
+      <c r="I84" t="s">
+        <v>35</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>720</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>64</v>
+        <v>721</v>
       </c>
       <c r="L84" t="s">
         <v>9</v>
       </c>
+      <c r="M84" t="s">
+        <v>714</v>
+      </c>
       <c r="N84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P84" t="s">
         <v>0</v>
@@ -8141,28 +9662,46 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>310</v>
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>713</v>
+      </c>
+      <c r="E85" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>722</v>
       </c>
       <c r="G85" t="s">
-        <v>62</v>
+        <v>584</v>
+      </c>
+      <c r="H85" t="s">
+        <v>518</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>723</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>64</v>
+        <v>724</v>
       </c>
       <c r="L85" t="s">
         <v>9</v>
       </c>
+      <c r="M85" t="s">
+        <v>715</v>
+      </c>
       <c r="N85" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O85" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P85" t="s">
         <v>0</v>
@@ -8203,28 +9742,46 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>310</v>
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>713</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>725</v>
       </c>
       <c r="G86" t="s">
-        <v>62</v>
+        <v>584</v>
+      </c>
+      <c r="H86" t="s">
+        <v>551</v>
+      </c>
+      <c r="I86" t="s">
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>726</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>64</v>
+        <v>727</v>
       </c>
       <c r="L86" t="s">
         <v>9</v>
       </c>
+      <c r="M86" t="s">
+        <v>716</v>
+      </c>
       <c r="N86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P86" t="s">
         <v>0</v>
@@ -8265,28 +9822,46 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>310</v>
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>713</v>
+      </c>
+      <c r="E87" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F87" t="s">
+        <v>728</v>
       </c>
       <c r="G87" t="s">
-        <v>62</v>
+        <v>729</v>
+      </c>
+      <c r="H87" t="s">
+        <v>518</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>63</v>
+        <v>730</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>64</v>
+        <v>731</v>
       </c>
       <c r="L87" t="s">
         <v>9</v>
       </c>
+      <c r="M87" t="s">
+        <v>717</v>
+      </c>
       <c r="N87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P87" t="s">
         <v>0</v>
@@ -8327,28 +9902,46 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>310</v>
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>732</v>
+      </c>
+      <c r="D88" t="s">
+        <v>515</v>
+      </c>
+      <c r="E88" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>737</v>
       </c>
       <c r="G88" t="s">
-        <v>62</v>
+        <v>736</v>
+      </c>
+      <c r="H88" t="s">
+        <v>518</v>
+      </c>
+      <c r="I88" t="s">
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>738</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>64</v>
+        <v>739</v>
       </c>
       <c r="L88" t="s">
         <v>9</v>
       </c>
+      <c r="M88" t="s">
+        <v>735</v>
+      </c>
       <c r="N88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P88" t="s">
         <v>0</v>
@@ -8389,28 +9982,46 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>310</v>
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>428</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>740</v>
       </c>
       <c r="G89" t="s">
-        <v>62</v>
+        <v>681</v>
+      </c>
+      <c r="H89" t="s">
+        <v>551</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>63</v>
+        <v>741</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>64</v>
+        <v>742</v>
       </c>
       <c r="L89" t="s">
         <v>9</v>
       </c>
+      <c r="M89" t="s">
+        <v>733</v>
+      </c>
       <c r="N89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P89" t="s">
         <v>0</v>
@@ -8451,28 +10062,46 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>310</v>
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>515</v>
+      </c>
+      <c r="E90" s="3">
+        <v>10.73</v>
+      </c>
+      <c r="F90" t="s">
+        <v>743</v>
       </c>
       <c r="G90" t="s">
-        <v>62</v>
+        <v>744</v>
+      </c>
+      <c r="H90" t="s">
+        <v>518</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>745</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>64</v>
+        <v>746</v>
       </c>
       <c r="L90" t="s">
         <v>9</v>
       </c>
+      <c r="M90" t="s">
+        <v>734</v>
+      </c>
       <c r="N90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P90" t="s">
         <v>0</v>
@@ -8513,28 +10142,46 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>310</v>
+        <v>143</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>428</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10.26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>748</v>
       </c>
       <c r="G91" t="s">
-        <v>62</v>
+        <v>749</v>
+      </c>
+      <c r="H91" t="s">
+        <v>518</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>750</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>64</v>
+        <v>751</v>
       </c>
       <c r="L91" t="s">
         <v>9</v>
       </c>
+      <c r="M91" t="s">
+        <v>747</v>
+      </c>
       <c r="N91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P91" t="s">
         <v>0</v>
@@ -8575,28 +10222,46 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>310</v>
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>572</v>
+      </c>
+      <c r="E92" s="3">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>755</v>
       </c>
       <c r="G92" t="s">
-        <v>62</v>
+        <v>756</v>
+      </c>
+      <c r="H92" t="s">
+        <v>551</v>
+      </c>
+      <c r="I92" t="s">
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>63</v>
+        <v>757</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>64</v>
+        <v>758</v>
       </c>
       <c r="L92" t="s">
         <v>9</v>
       </c>
+      <c r="M92" t="s">
+        <v>752</v>
+      </c>
       <c r="N92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P92" t="s">
         <v>0</v>
@@ -8637,28 +10302,46 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>310</v>
+        <v>145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>315</v>
       </c>
       <c r="G93" t="s">
-        <v>62</v>
+        <v>760</v>
+      </c>
+      <c r="H93" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93" t="s">
+        <v>35</v>
       </c>
       <c r="J93" t="s">
-        <v>63</v>
+        <v>761</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>64</v>
+        <v>762</v>
       </c>
       <c r="L93" t="s">
         <v>9</v>
       </c>
+      <c r="M93" t="s">
+        <v>759</v>
+      </c>
       <c r="N93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P93" t="s">
         <v>0</v>
@@ -8699,28 +10382,46 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>310</v>
+        <v>146</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>763</v>
       </c>
       <c r="G94" t="s">
-        <v>62</v>
+        <v>764</v>
+      </c>
+      <c r="H94" t="s">
+        <v>516</v>
+      </c>
+      <c r="I94" t="s">
+        <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>63</v>
+        <v>765</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>64</v>
+        <v>766</v>
       </c>
       <c r="L94" t="s">
         <v>9</v>
       </c>
+      <c r="M94" t="s">
+        <v>753</v>
+      </c>
       <c r="N94" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O94" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P94" t="s">
         <v>0</v>
@@ -8761,28 +10462,46 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>310</v>
+        <v>147</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E95" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>768</v>
       </c>
       <c r="G95" t="s">
-        <v>62</v>
+        <v>767</v>
+      </c>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>63</v>
+        <v>769</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>64</v>
+        <v>770</v>
       </c>
       <c r="L95" t="s">
         <v>9</v>
       </c>
+      <c r="M95" t="s">
+        <v>754</v>
+      </c>
       <c r="N95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P95" t="s">
         <v>0</v>
@@ -8823,28 +10542,46 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>310</v>
+        <v>148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>572</v>
+      </c>
+      <c r="E96" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>776</v>
       </c>
       <c r="G96" t="s">
-        <v>62</v>
+        <v>777</v>
+      </c>
+      <c r="H96" t="s">
+        <v>614</v>
+      </c>
+      <c r="I96" t="s">
+        <v>26</v>
       </c>
       <c r="J96" t="s">
-        <v>63</v>
+        <v>778</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>64</v>
+        <v>779</v>
       </c>
       <c r="L96" t="s">
         <v>9</v>
       </c>
+      <c r="M96" t="s">
+        <v>772</v>
+      </c>
       <c r="N96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P96" t="s">
         <v>0</v>
@@ -8885,28 +10622,46 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>310</v>
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>428</v>
+      </c>
+      <c r="E97" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>780</v>
       </c>
       <c r="G97" t="s">
-        <v>62</v>
+        <v>781</v>
+      </c>
+      <c r="H97" t="s">
+        <v>614</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>63</v>
+        <v>782</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>64</v>
+        <v>783</v>
       </c>
       <c r="L97" t="s">
         <v>9</v>
       </c>
+      <c r="M97" t="s">
+        <v>773</v>
+      </c>
       <c r="N97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P97" t="s">
         <v>0</v>
@@ -8947,28 +10702,46 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>310</v>
+        <v>150</v>
+      </c>
+      <c r="C98" t="s">
+        <v>771</v>
+      </c>
+      <c r="D98" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>784</v>
       </c>
       <c r="G98" t="s">
-        <v>62</v>
+        <v>785</v>
+      </c>
+      <c r="H98" t="s">
+        <v>475</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
       </c>
       <c r="J98" t="s">
-        <v>63</v>
+        <v>786</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>64</v>
+        <v>787</v>
       </c>
       <c r="L98" t="s">
         <v>9</v>
       </c>
+      <c r="M98" t="s">
+        <v>774</v>
+      </c>
       <c r="N98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s">
         <v>0</v>
@@ -9009,28 +10782,46 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>310</v>
+        <v>151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>428</v>
+      </c>
+      <c r="E99" s="3">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>788</v>
       </c>
       <c r="G99" t="s">
-        <v>62</v>
+        <v>789</v>
+      </c>
+      <c r="H99" t="s">
+        <v>551</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>63</v>
+        <v>790</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>64</v>
+        <v>791</v>
       </c>
       <c r="L99" t="s">
         <v>9</v>
       </c>
+      <c r="M99" t="s">
+        <v>775</v>
+      </c>
       <c r="N99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P99" t="s">
         <v>0</v>
@@ -9071,28 +10862,46 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>310</v>
+        <v>152</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>428</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>795</v>
       </c>
       <c r="G100" t="s">
-        <v>62</v>
+        <v>796</v>
+      </c>
+      <c r="H100" t="s">
+        <v>551</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
       </c>
       <c r="J100" t="s">
-        <v>63</v>
+        <v>797</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>64</v>
+        <v>798</v>
       </c>
       <c r="L100" t="s">
         <v>9</v>
       </c>
+      <c r="M100" t="s">
+        <v>793</v>
+      </c>
       <c r="N100" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O100" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P100" t="s">
         <v>0</v>
@@ -9133,28 +10942,46 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>310</v>
+        <v>153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>428</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>799</v>
       </c>
       <c r="G101" t="s">
-        <v>62</v>
+        <v>589</v>
+      </c>
+      <c r="H101" t="s">
+        <v>551</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
       </c>
       <c r="J101" t="s">
-        <v>63</v>
+        <v>800</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>64</v>
+        <v>801</v>
       </c>
       <c r="L101" t="s">
         <v>9</v>
       </c>
+      <c r="M101" t="s">
+        <v>794</v>
+      </c>
       <c r="N101" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O101" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P101" t="s">
         <v>0</v>
@@ -9195,28 +11022,46 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>310</v>
+        <v>154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>792</v>
+      </c>
+      <c r="D102" t="s">
+        <v>428</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="F102" t="s">
+        <v>803</v>
       </c>
       <c r="G102" t="s">
-        <v>62</v>
+        <v>804</v>
+      </c>
+      <c r="H102" t="s">
+        <v>475</v>
+      </c>
+      <c r="I102" t="s">
+        <v>26</v>
       </c>
       <c r="J102" t="s">
-        <v>63</v>
+        <v>805</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>64</v>
+        <v>806</v>
       </c>
       <c r="L102" t="s">
         <v>9</v>
       </c>
+      <c r="M102" t="s">
+        <v>802</v>
+      </c>
       <c r="N102" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O102" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P102" t="s">
         <v>0</v>
@@ -9257,28 +11102,46 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>310</v>
+        <v>155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>808</v>
+      </c>
+      <c r="D103" t="s">
+        <v>713</v>
+      </c>
+      <c r="E103" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>809</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>744</v>
+      </c>
+      <c r="H103" t="s">
+        <v>810</v>
+      </c>
+      <c r="I103" t="s">
+        <v>35</v>
       </c>
       <c r="J103" t="s">
-        <v>63</v>
+        <v>811</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>64</v>
+        <v>812</v>
       </c>
       <c r="L103" t="s">
         <v>9</v>
       </c>
+      <c r="M103" t="s">
+        <v>807</v>
+      </c>
       <c r="N103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P103" t="s">
         <v>0</v>
@@ -9319,28 +11182,46 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>310</v>
+        <v>156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>50</v>
+      </c>
+      <c r="E104" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>818</v>
       </c>
       <c r="G104" t="s">
-        <v>62</v>
+        <v>394</v>
+      </c>
+      <c r="H104" t="s">
+        <v>543</v>
+      </c>
+      <c r="I104" t="s">
+        <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>63</v>
+        <v>819</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>64</v>
+        <v>820</v>
       </c>
       <c r="L104" t="s">
         <v>9</v>
       </c>
+      <c r="M104" t="s">
+        <v>814</v>
+      </c>
       <c r="N104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P104" t="s">
         <v>0</v>
@@ -9381,28 +11262,46 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>310</v>
+        <v>157</v>
+      </c>
+      <c r="C105" t="s">
+        <v>813</v>
+      </c>
+      <c r="D105" t="s">
+        <v>428</v>
+      </c>
+      <c r="E105" s="3">
+        <v>8.98</v>
+      </c>
+      <c r="F105" t="s">
+        <v>821</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>822</v>
+      </c>
+      <c r="H105" t="s">
+        <v>518</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
       </c>
       <c r="J105" t="s">
-        <v>63</v>
+        <v>823</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>64</v>
+        <v>824</v>
       </c>
       <c r="L105" t="s">
         <v>9</v>
       </c>
+      <c r="M105" t="s">
+        <v>815</v>
+      </c>
       <c r="N105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P105" t="s">
         <v>0</v>
@@ -9443,28 +11342,46 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>310</v>
+        <v>158</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>515</v>
+      </c>
+      <c r="E106" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>825</v>
       </c>
       <c r="G106" t="s">
-        <v>62</v>
+        <v>826</v>
+      </c>
+      <c r="H106" t="s">
+        <v>614</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
       </c>
       <c r="J106" t="s">
-        <v>63</v>
+        <v>827</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>64</v>
+        <v>828</v>
       </c>
       <c r="L106" t="s">
         <v>9</v>
       </c>
+      <c r="M106" t="s">
+        <v>816</v>
+      </c>
       <c r="N106" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O106" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P106" t="s">
         <v>0</v>
@@ -9505,28 +11422,46 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>310</v>
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>428</v>
+      </c>
+      <c r="E107" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>829</v>
       </c>
       <c r="G107" t="s">
-        <v>62</v>
+        <v>830</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>63</v>
+        <v>831</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>64</v>
+        <v>832</v>
       </c>
       <c r="L107" t="s">
         <v>9</v>
       </c>
+      <c r="M107" t="s">
+        <v>817</v>
+      </c>
       <c r="N107" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O107" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P107" t="s">
         <v>0</v>
@@ -9567,28 +11502,46 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>310</v>
+        <v>160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="F108" t="s">
+        <v>371</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
+        <v>837</v>
+      </c>
+      <c r="H108" t="s">
+        <v>302</v>
+      </c>
+      <c r="I108" t="s">
+        <v>35</v>
       </c>
       <c r="J108" t="s">
-        <v>63</v>
+        <v>838</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>64</v>
+        <v>839</v>
       </c>
       <c r="L108" t="s">
         <v>9</v>
       </c>
+      <c r="M108" t="s">
+        <v>836</v>
+      </c>
       <c r="N108" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O108" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P108" t="s">
         <v>0</v>
@@ -9629,28 +11582,46 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>310</v>
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>428</v>
+      </c>
+      <c r="E109" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>840</v>
       </c>
       <c r="G109" t="s">
-        <v>62</v>
+        <v>841</v>
+      </c>
+      <c r="H109" t="s">
+        <v>475</v>
+      </c>
+      <c r="I109" t="s">
+        <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>63</v>
+        <v>842</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>64</v>
+        <v>843</v>
       </c>
       <c r="L109" t="s">
         <v>9</v>
       </c>
+      <c r="M109" t="s">
+        <v>833</v>
+      </c>
       <c r="N109" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O109" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P109" t="s">
         <v>0</v>
@@ -9691,28 +11662,46 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>310</v>
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>572</v>
+      </c>
+      <c r="E110" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>845</v>
       </c>
       <c r="G110" t="s">
-        <v>62</v>
+        <v>844</v>
+      </c>
+      <c r="H110" t="s">
+        <v>475</v>
+      </c>
+      <c r="I110" t="s">
+        <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>63</v>
+        <v>846</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>64</v>
+        <v>847</v>
       </c>
       <c r="L110" t="s">
         <v>9</v>
       </c>
+      <c r="M110" t="s">
+        <v>834</v>
+      </c>
       <c r="N110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P110" t="s">
         <v>0</v>
@@ -9753,28 +11742,46 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>310</v>
+        <v>163</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" s="3">
+        <v>8.92</v>
+      </c>
+      <c r="F111" t="s">
+        <v>848</v>
       </c>
       <c r="G111" t="s">
-        <v>62</v>
+        <v>849</v>
+      </c>
+      <c r="H111" t="s">
+        <v>435</v>
+      </c>
+      <c r="I111" t="s">
+        <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>63</v>
+        <v>850</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>64</v>
+        <v>851</v>
       </c>
       <c r="L111" t="s">
         <v>9</v>
       </c>
+      <c r="M111" t="s">
+        <v>835</v>
+      </c>
       <c r="N111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P111" t="s">
         <v>0</v>

--- a/NonCodeResources/Catalogs/MessierCatalog/MessierDataSpreadsheet.xlsx
+++ b/NonCodeResources/Catalogs/MessierCatalog/MessierDataSpreadsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="9015"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="851">
   <si>
     <t>NULL</t>
   </si>
@@ -567,12 +567,6 @@
     <t>logLocation</t>
   </si>
   <si>
-    <t>telescope</t>
-  </si>
-  <si>
-    <t>eyepiece</t>
-  </si>
-  <si>
     <t>seeing</t>
   </si>
   <si>
@@ -2572,6 +2566,9 @@
   </si>
   <si>
     <t>+41° 41' 07\"</t>
+  </si>
+  <si>
+    <t>equipment</t>
   </si>
 </sst>
 </file>
@@ -2909,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,12 +2929,12 @@
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -2996,28 +2993,25 @@
         <v>182</v>
       </c>
       <c r="T1" t="s">
+        <v>850</v>
+      </c>
+      <c r="U1" t="s">
         <v>183</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>184</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>185</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>186</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>189</v>
-      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3028,7 @@
         <v>8.4</v>
       </c>
       <c r="F2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -3093,11 +3087,8 @@
       <c r="Y2" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3173,11 +3164,8 @@
       <c r="Y3" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3253,11 +3241,8 @@
       <c r="Y4" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3333,11 +3318,8 @@
       <c r="Y5" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3413,11 +3395,8 @@
       <c r="Y6" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3446,10 +3425,10 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
@@ -3493,11 +3472,8 @@
       <c r="Y7" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3526,10 +3502,10 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -3573,11 +3549,8 @@
       <c r="Y8" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3585,43 +3558,43 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" t="s">
         <v>295</v>
-      </c>
-      <c r="G9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" t="s">
-        <v>297</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L9" t="s">
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
@@ -3653,11 +3626,8 @@
       <c r="Y9" t="s">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3674,34 +3644,34 @@
         <v>8.42</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L10" t="s">
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
@@ -3733,11 +3703,8 @@
       <c r="Y10" t="s">
         <v>0</v>
       </c>
-      <c r="Z10" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3754,34 +3721,34 @@
         <v>6.4</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L11" t="s">
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
@@ -3813,11 +3780,8 @@
       <c r="Y11" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3789,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -3834,34 +3798,34 @@
         <v>6.3</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
@@ -3893,11 +3857,8 @@
       <c r="Y12" t="s">
         <v>0</v>
       </c>
-      <c r="Z12" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3914,34 +3875,34 @@
         <v>7.68</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
         <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P13" t="s">
         <v>0</v>
@@ -3973,11 +3934,8 @@
       <c r="Y13" t="s">
         <v>0</v>
       </c>
-      <c r="Z13" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3943,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -3994,34 +3952,34 @@
         <v>5.8</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L14" t="s">
         <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
@@ -4053,11 +4011,8 @@
       <c r="Y14" t="s">
         <v>0</v>
       </c>
-      <c r="Z14" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4074,34 +4029,34 @@
         <v>8.32</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s">
         <v>0</v>
@@ -4133,11 +4088,8 @@
       <c r="Y15" t="s">
         <v>0</v>
       </c>
-      <c r="Z15" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4154,34 +4106,34 @@
         <v>6.2</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L16" t="s">
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s">
         <v>0</v>
@@ -4213,11 +4165,8 @@
       <c r="Y16" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4225,19 +4174,19 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -4246,22 +4195,22 @@
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s">
         <v>0</v>
@@ -4293,11 +4242,8 @@
       <c r="Y17" t="s">
         <v>0</v>
       </c>
-      <c r="Z17" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4305,43 +4251,43 @@
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L18" t="s">
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s">
         <v>0</v>
@@ -4373,11 +4319,8 @@
       <c r="Y18" t="s">
         <v>0</v>
       </c>
-      <c r="Z18" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4394,34 +4337,34 @@
         <v>7.5</v>
       </c>
       <c r="F19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L19" t="s">
         <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s">
         <v>0</v>
@@ -4453,11 +4396,8 @@
       <c r="Y19" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4474,34 +4414,34 @@
         <v>7.47</v>
       </c>
       <c r="F20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L20" t="s">
         <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s">
         <v>0</v>
@@ -4533,11 +4473,8 @@
       <c r="Y20" t="s">
         <v>0</v>
       </c>
-      <c r="Z20" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4545,43 +4482,43 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E21" s="3">
         <v>6.3</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L21" t="s">
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
         <v>0</v>
@@ -4613,11 +4550,8 @@
       <c r="Y21" t="s">
         <v>0</v>
       </c>
-      <c r="Z21" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4634,34 +4568,34 @@
         <v>6.5</v>
       </c>
       <c r="F22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s">
         <v>0</v>
@@ -4693,11 +4627,8 @@
       <c r="Y22" t="s">
         <v>0</v>
       </c>
-      <c r="Z22" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4636,7 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -4714,34 +4645,34 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L23" t="s">
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s">
         <v>0</v>
@@ -4773,11 +4704,8 @@
       <c r="Y23" t="s">
         <v>0</v>
       </c>
-      <c r="Z23" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4794,34 +4722,34 @@
         <v>6.9</v>
       </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
         <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
       <c r="M24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P24" t="s">
         <v>0</v>
@@ -4853,11 +4781,8 @@
       <c r="Y24" t="s">
         <v>0</v>
       </c>
-      <c r="Z24" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4865,43 +4790,43 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E25" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I25" t="s">
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L25" t="s">
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P25" t="s">
         <v>0</v>
@@ -4933,11 +4858,8 @@
       <c r="Y25" t="s">
         <v>0</v>
       </c>
-      <c r="Z25" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4954,34 +4876,34 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I26" t="s">
         <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L26" t="s">
         <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s">
         <v>0</v>
@@ -5013,11 +4935,8 @@
       <c r="Y26" t="s">
         <v>0</v>
       </c>
-      <c r="Z26" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5034,34 +4953,34 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L27" t="s">
         <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P27" t="s">
         <v>0</v>
@@ -5093,11 +5012,8 @@
       <c r="Y27" t="s">
         <v>0</v>
       </c>
-      <c r="Z27" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5105,43 +5021,43 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E28" s="3">
         <v>7.5</v>
       </c>
       <c r="F28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L28" t="s">
         <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P28" t="s">
         <v>0</v>
@@ -5173,11 +5089,8 @@
       <c r="Y28" t="s">
         <v>0</v>
       </c>
-      <c r="Z28" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5194,34 +5107,34 @@
         <v>7.66</v>
       </c>
       <c r="F29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L29" t="s">
         <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P29" t="s">
         <v>0</v>
@@ -5253,11 +5166,8 @@
       <c r="Y29" t="s">
         <v>0</v>
       </c>
-      <c r="Z29" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5274,34 +5184,34 @@
         <v>7.1</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L30" t="s">
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P30" t="s">
         <v>0</v>
@@ -5333,11 +5243,8 @@
       <c r="Y30" t="s">
         <v>0</v>
       </c>
-      <c r="Z30" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5354,34 +5261,34 @@
         <v>7.7</v>
       </c>
       <c r="F31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L31" t="s">
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P31" t="s">
         <v>0</v>
@@ -5413,11 +5320,8 @@
       <c r="Y31" t="s">
         <v>0</v>
       </c>
-      <c r="Z31" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5425,43 +5329,43 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" t="s">
         <v>426</v>
-      </c>
-      <c r="D32" t="s">
-        <v>428</v>
       </c>
       <c r="E32" s="3">
         <v>3.44</v>
       </c>
       <c r="F32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32" t="s">
+        <v>432</v>
+      </c>
+      <c r="H32" t="s">
         <v>433</v>
-      </c>
-      <c r="G32" t="s">
-        <v>434</v>
-      </c>
-      <c r="H32" t="s">
-        <v>435</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L32" t="s">
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P32" t="s">
         <v>0</v>
@@ -5493,11 +5397,8 @@
       <c r="Y32" t="s">
         <v>0</v>
       </c>
-      <c r="Z32" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5505,43 +5406,43 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E33" s="3">
         <v>8.08</v>
       </c>
       <c r="F33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L33" t="s">
         <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P33" t="s">
         <v>0</v>
@@ -5573,11 +5474,8 @@
       <c r="Y33" t="s">
         <v>0</v>
       </c>
-      <c r="Z33" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -5585,43 +5483,43 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E34" s="3">
         <v>5.72</v>
       </c>
       <c r="F34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I34" t="s">
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L34" t="s">
         <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P34" t="s">
         <v>0</v>
@@ -5653,11 +5551,8 @@
       <c r="Y34" t="s">
         <v>0</v>
       </c>
-      <c r="Z34" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5674,34 +5569,34 @@
         <v>5.5</v>
       </c>
       <c r="F35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L35" t="s">
         <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P35" t="s">
         <v>0</v>
@@ -5733,11 +5628,8 @@
       <c r="Y35" t="s">
         <v>0</v>
       </c>
-      <c r="Z35" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5754,34 +5646,34 @@
         <v>5.3</v>
       </c>
       <c r="F36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L36" t="s">
         <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P36" t="s">
         <v>0</v>
@@ -5813,11 +5705,8 @@
       <c r="Y36" t="s">
         <v>0</v>
       </c>
-      <c r="Z36" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5834,34 +5723,34 @@
         <v>6.3</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L37" t="s">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P37" t="s">
         <v>0</v>
@@ -5893,11 +5782,8 @@
       <c r="Y37" t="s">
         <v>0</v>
       </c>
-      <c r="Z37" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -5914,34 +5800,34 @@
         <v>6.2</v>
       </c>
       <c r="F38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L38" t="s">
         <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P38" t="s">
         <v>0</v>
@@ -5973,11 +5859,8 @@
       <c r="Y38" t="s">
         <v>0</v>
       </c>
-      <c r="Z38" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5994,34 +5877,34 @@
         <v>7.4</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L39" t="s">
         <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P39" t="s">
         <v>0</v>
@@ -6053,11 +5936,8 @@
       <c r="Y39" t="s">
         <v>0</v>
       </c>
-      <c r="Z39" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -6074,34 +5954,34 @@
         <v>5.5</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
         <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L40" t="s">
         <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P40" t="s">
         <v>0</v>
@@ -6133,11 +6013,8 @@
       <c r="Y40" t="s">
         <v>0</v>
       </c>
-      <c r="Z40" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -6145,31 +6022,31 @@
         <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E41" s="3">
         <v>9.65</v>
       </c>
       <c r="F41" t="s">
+        <v>478</v>
+      </c>
+      <c r="G41" t="s">
         <v>480</v>
       </c>
-      <c r="G41" t="s">
-        <v>482</v>
-      </c>
       <c r="H41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L41" t="s">
         <v>9</v>
@@ -6178,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P41" t="s">
         <v>0</v>
@@ -6213,11 +6090,8 @@
       <c r="Y41" t="s">
         <v>0</v>
       </c>
-      <c r="Z41" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -6234,34 +6108,34 @@
         <v>4.5</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G42" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L42" t="s">
         <v>9</v>
       </c>
       <c r="M42" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P42" t="s">
         <v>0</v>
@@ -6293,11 +6167,8 @@
       <c r="Y42" t="s">
         <v>0</v>
       </c>
-      <c r="Z42" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -6305,43 +6176,43 @@
         <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L43" t="s">
         <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P43" t="s">
         <v>0</v>
@@ -6373,11 +6244,8 @@
       <c r="Y43" t="s">
         <v>0</v>
       </c>
-      <c r="Z43" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -6385,43 +6253,43 @@
         <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L44" t="s">
         <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P44" t="s">
         <v>0</v>
@@ -6453,11 +6321,8 @@
       <c r="Y44" t="s">
         <v>0</v>
       </c>
-      <c r="Z44" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -6465,7 +6330,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -6474,34 +6339,34 @@
         <v>3.7</v>
       </c>
       <c r="F45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G45" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L45" t="s">
         <v>9</v>
       </c>
       <c r="M45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P45" t="s">
         <v>0</v>
@@ -6533,11 +6398,8 @@
       <c r="Y45" t="s">
         <v>0</v>
       </c>
-      <c r="Z45" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -6545,7 +6407,7 @@
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -6554,10 +6416,10 @@
         <v>1.6</v>
       </c>
       <c r="F46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -6566,10 +6428,10 @@
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L46" t="s">
         <v>9</v>
@@ -6578,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P46" t="s">
         <v>0</v>
@@ -6613,11 +6475,8 @@
       <c r="Y46" t="s">
         <v>0</v>
       </c>
-      <c r="Z46" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -6634,34 +6493,34 @@
         <v>6.1</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L47" t="s">
         <v>9</v>
       </c>
       <c r="M47" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P47" t="s">
         <v>0</v>
@@ -6693,11 +6552,8 @@
       <c r="Y47" t="s">
         <v>0</v>
       </c>
-      <c r="Z47" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -6714,34 +6570,34 @@
         <v>4.2</v>
       </c>
       <c r="F48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I48" t="s">
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L48" t="s">
         <v>9</v>
       </c>
       <c r="M48" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P48" t="s">
         <v>0</v>
@@ -6773,11 +6629,8 @@
       <c r="Y48" t="s">
         <v>0</v>
       </c>
-      <c r="Z48" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6794,34 +6647,34 @@
         <v>5.5</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H49" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I49" t="s">
         <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L49" t="s">
         <v>9</v>
       </c>
       <c r="M49" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P49" t="s">
         <v>0</v>
@@ -6853,11 +6706,8 @@
       <c r="Y49" t="s">
         <v>0</v>
       </c>
-      <c r="Z49" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -6868,40 +6718,40 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E50" s="3">
         <v>9.4</v>
       </c>
       <c r="F50" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H50" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L50" t="s">
         <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P50" t="s">
         <v>0</v>
@@ -6933,11 +6783,8 @@
       <c r="Y50" t="s">
         <v>0</v>
       </c>
-      <c r="Z50" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -6954,34 +6801,34 @@
         <v>5.9</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H51" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L51" t="s">
         <v>9</v>
       </c>
       <c r="M51" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s">
         <v>0</v>
@@ -7013,11 +6860,8 @@
       <c r="Y51" t="s">
         <v>0</v>
       </c>
-      <c r="Z51" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -7025,19 +6869,19 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" s="3">
         <v>8.4</v>
       </c>
       <c r="F52" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G52" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
@@ -7046,22 +6890,22 @@
         <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L52" t="s">
         <v>9</v>
       </c>
       <c r="M52" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P52" t="s">
         <v>0</v>
@@ -7093,11 +6937,8 @@
       <c r="Y52" t="s">
         <v>0</v>
       </c>
-      <c r="Z52" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -7114,34 +6955,34 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H53" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L53" t="s">
         <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P53" t="s">
         <v>0</v>
@@ -7173,11 +7014,8 @@
       <c r="Y53" t="s">
         <v>0</v>
       </c>
-      <c r="Z53" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -7194,34 +7032,34 @@
         <v>8.33</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G54" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H54" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L54" t="s">
         <v>9</v>
       </c>
       <c r="M54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P54" t="s">
         <v>0</v>
@@ -7253,11 +7091,8 @@
       <c r="Y54" t="s">
         <v>0</v>
       </c>
-      <c r="Z54" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7274,34 +7109,34 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I55" t="s">
         <v>35</v>
       </c>
       <c r="J55" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L55" t="s">
         <v>9</v>
       </c>
       <c r="M55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s">
         <v>0</v>
@@ -7333,11 +7168,8 @@
       <c r="Y55" t="s">
         <v>0</v>
       </c>
-      <c r="Z55" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -7354,34 +7186,34 @@
         <v>7.42</v>
       </c>
       <c r="F56" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I56" t="s">
         <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L56" t="s">
         <v>9</v>
       </c>
       <c r="M56" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P56" t="s">
         <v>0</v>
@@ -7413,11 +7245,8 @@
       <c r="Y56" t="s">
         <v>0</v>
       </c>
-      <c r="Z56" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -7434,34 +7263,34 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G57" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L57" t="s">
         <v>9</v>
       </c>
       <c r="M57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P57" t="s">
         <v>0</v>
@@ -7493,11 +7322,8 @@
       <c r="Y57" t="s">
         <v>0</v>
       </c>
-      <c r="Z57" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -7505,43 +7331,43 @@
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E58" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="F58" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G58" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H58" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L58" t="s">
         <v>9</v>
       </c>
       <c r="M58" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s">
         <v>0</v>
@@ -7573,11 +7399,8 @@
       <c r="Y58" t="s">
         <v>0</v>
       </c>
-      <c r="Z58" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -7588,40 +7411,40 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E59" s="3">
         <v>10.5</v>
       </c>
       <c r="F59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G59" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H59" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L59" t="s">
         <v>9</v>
       </c>
       <c r="M59" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P59" t="s">
         <v>0</v>
@@ -7653,11 +7476,8 @@
       <c r="Y59" t="s">
         <v>0</v>
       </c>
-      <c r="Z59" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -7668,40 +7488,40 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E60" s="3">
         <v>10.6</v>
       </c>
       <c r="F60" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G60" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H60" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I60" t="s">
         <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L60" t="s">
         <v>9</v>
       </c>
       <c r="M60" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P60" t="s">
         <v>0</v>
@@ -7733,11 +7553,8 @@
       <c r="Y60" t="s">
         <v>0</v>
       </c>
-      <c r="Z60" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -7748,40 +7565,40 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E61" s="3">
         <v>9.8000000000000007</v>
       </c>
       <c r="F61" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G61" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L61" t="s">
         <v>9</v>
       </c>
       <c r="M61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
         <v>0</v>
@@ -7813,11 +7630,8 @@
       <c r="Y61" t="s">
         <v>0</v>
       </c>
-      <c r="Z61" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -7828,40 +7642,40 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E62" s="3">
         <v>10.18</v>
       </c>
       <c r="F62" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H62" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L62" t="s">
         <v>9</v>
       </c>
       <c r="M62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P62" t="s">
         <v>0</v>
@@ -7893,11 +7707,8 @@
       <c r="Y62" t="s">
         <v>0</v>
       </c>
-      <c r="Z62" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -7914,34 +7725,34 @@
         <v>7.39</v>
       </c>
       <c r="F63" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G63" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I63" t="s">
         <v>35</v>
       </c>
       <c r="J63" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L63" t="s">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P63" t="s">
         <v>0</v>
@@ -7973,11 +7784,8 @@
       <c r="Y63" t="s">
         <v>0</v>
       </c>
-      <c r="Z63" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -7985,19 +7793,19 @@
         <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D64" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E64" s="3">
         <v>9.3000000000000007</v>
       </c>
       <c r="F64" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G64" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H64" t="s">
         <v>25</v>
@@ -8006,22 +7814,22 @@
         <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L64" t="s">
         <v>9</v>
       </c>
       <c r="M64" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P64" t="s">
         <v>0</v>
@@ -8053,11 +7861,8 @@
       <c r="Y64" t="s">
         <v>0</v>
       </c>
-      <c r="Z64" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -8065,43 +7870,43 @@
         <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E65" s="3">
         <v>9.36</v>
       </c>
       <c r="F65" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G65" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H65" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L65" t="s">
         <v>9</v>
       </c>
       <c r="M65" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P65" t="s">
         <v>0</v>
@@ -8133,11 +7938,8 @@
       <c r="Y65" t="s">
         <v>0</v>
       </c>
-      <c r="Z65" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -8145,43 +7947,43 @@
         <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D66" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E66" s="3">
         <v>10.25</v>
       </c>
       <c r="F66" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G66" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H66" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L66" t="s">
         <v>9</v>
       </c>
       <c r="M66" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P66" t="s">
         <v>0</v>
@@ -8213,11 +8015,8 @@
       <c r="Y66" t="s">
         <v>0</v>
       </c>
-      <c r="Z66" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -8225,43 +8024,43 @@
         <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D67" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E67" s="3">
         <v>8.9</v>
       </c>
       <c r="F67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G67" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L67" t="s">
         <v>9</v>
       </c>
       <c r="M67" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P67" t="s">
         <v>0</v>
@@ -8293,11 +8092,8 @@
       <c r="Y67" t="s">
         <v>0</v>
       </c>
-      <c r="Z67" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -8314,34 +8110,34 @@
         <v>6.1</v>
       </c>
       <c r="F68" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G68" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H68" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L68" t="s">
         <v>9</v>
       </c>
       <c r="M68" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P68" t="s">
         <v>0</v>
@@ -8373,11 +8169,8 @@
       <c r="Y68" t="s">
         <v>0</v>
       </c>
-      <c r="Z68" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -8394,34 +8187,34 @@
         <v>9.67</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G69" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H69" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
         <v>9</v>
       </c>
       <c r="M69" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P69" t="s">
         <v>0</v>
@@ -8453,11 +8246,8 @@
       <c r="Y69" t="s">
         <v>0</v>
       </c>
-      <c r="Z69" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -8474,34 +8264,34 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G70" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H70" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I70" t="s">
         <v>35</v>
       </c>
       <c r="J70" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L70" t="s">
         <v>9</v>
       </c>
       <c r="M70" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P70" t="s">
         <v>0</v>
@@ -8533,11 +8323,8 @@
       <c r="Y70" t="s">
         <v>0</v>
       </c>
-      <c r="Z70" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -8554,34 +8341,34 @@
         <v>9.06</v>
       </c>
       <c r="F71" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G71" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H71" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I71" t="s">
         <v>35</v>
       </c>
       <c r="J71" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L71" t="s">
         <v>9</v>
       </c>
       <c r="M71" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P71" t="s">
         <v>0</v>
@@ -8613,11 +8400,8 @@
       <c r="Y71" t="s">
         <v>0</v>
       </c>
-      <c r="Z71" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -8634,34 +8418,34 @@
         <v>6.1</v>
       </c>
       <c r="F72" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G72" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H72" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I72" t="s">
         <v>35</v>
       </c>
       <c r="J72" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L72" t="s">
         <v>9</v>
       </c>
       <c r="M72" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P72" t="s">
         <v>0</v>
@@ -8693,11 +8477,8 @@
       <c r="Y72" t="s">
         <v>0</v>
       </c>
-      <c r="Z72" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -8714,10 +8495,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F73" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G73" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -8726,22 +8507,22 @@
         <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L73" t="s">
         <v>9</v>
       </c>
       <c r="M73" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P73" t="s">
         <v>0</v>
@@ -8773,11 +8554,8 @@
       <c r="Y73" t="s">
         <v>0</v>
       </c>
-      <c r="Z73" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -8788,16 +8566,16 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E74" s="3">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G74" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
@@ -8806,22 +8584,22 @@
         <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L74" t="s">
         <v>9</v>
       </c>
       <c r="M74" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P74" t="s">
         <v>0</v>
@@ -8853,11 +8631,8 @@
       <c r="Y74" t="s">
         <v>0</v>
       </c>
-      <c r="Z74" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -8868,40 +8643,40 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E75" s="3">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G75" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H75" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L75" t="s">
         <v>9</v>
       </c>
       <c r="M75" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P75" t="s">
         <v>0</v>
@@ -8933,11 +8708,8 @@
       <c r="Y75" t="s">
         <v>0</v>
       </c>
-      <c r="Z75" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -8954,34 +8726,34 @@
         <v>9.18</v>
       </c>
       <c r="F76" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G76" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I76" t="s">
         <v>35</v>
       </c>
       <c r="J76" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L76" t="s">
         <v>9</v>
       </c>
       <c r="M76" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P76" t="s">
         <v>0</v>
@@ -9013,11 +8785,8 @@
       <c r="Y76" t="s">
         <v>0</v>
       </c>
-      <c r="Z76" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9025,43 +8794,43 @@
         <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D77" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E77" s="3">
         <v>10.1</v>
       </c>
       <c r="F77" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G77" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H77" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L77" t="s">
         <v>9</v>
       </c>
       <c r="M77" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N77" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O77" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P77" t="s">
         <v>0</v>
@@ -9093,11 +8862,8 @@
       <c r="Y77" t="s">
         <v>0</v>
       </c>
-      <c r="Z77" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9105,43 +8871,43 @@
         <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D78" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E78" s="3">
         <v>9.6</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G78" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H78" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L78" t="s">
         <v>9</v>
       </c>
       <c r="M78" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P78" t="s">
         <v>0</v>
@@ -9173,11 +8939,8 @@
       <c r="Y78" t="s">
         <v>0</v>
       </c>
-      <c r="Z78" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9188,40 +8951,40 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E79" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="F79" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G79" t="s">
         <v>52</v>
       </c>
       <c r="H79" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L79" t="s">
         <v>9</v>
       </c>
       <c r="M79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P79" t="s">
         <v>0</v>
@@ -9253,11 +9016,8 @@
       <c r="Y79" t="s">
         <v>0</v>
       </c>
-      <c r="Z79" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9274,34 +9034,34 @@
         <v>8.56</v>
       </c>
       <c r="F80" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G80" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H80" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I80" t="s">
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L80" t="s">
         <v>9</v>
       </c>
       <c r="M80" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P80" t="s">
         <v>0</v>
@@ -9333,11 +9093,8 @@
       <c r="Y80" t="s">
         <v>0</v>
       </c>
-      <c r="Z80" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9354,10 +9111,10 @@
         <v>7.87</v>
       </c>
       <c r="F81" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G81" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H81" t="s">
         <v>34</v>
@@ -9366,22 +9123,22 @@
         <v>35</v>
       </c>
       <c r="J81" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L81" t="s">
         <v>9</v>
       </c>
       <c r="M81" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P81" t="s">
         <v>0</v>
@@ -9413,11 +9170,8 @@
       <c r="Y81" t="s">
         <v>0</v>
       </c>
-      <c r="Z81" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9425,43 +9179,43 @@
         <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E82" s="3">
         <v>6.94</v>
       </c>
       <c r="F82" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G82" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L82" t="s">
         <v>9</v>
       </c>
       <c r="M82" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="N82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P82" t="s">
         <v>0</v>
@@ -9493,11 +9247,8 @@
       <c r="Y82" t="s">
         <v>0</v>
       </c>
-      <c r="Z82" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9505,43 +9256,43 @@
         <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D83" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E83" s="3">
         <v>8.41</v>
       </c>
       <c r="F83" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G83" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H83" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I83" t="s">
         <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L83" t="s">
         <v>9</v>
       </c>
       <c r="M83" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P83" t="s">
         <v>0</v>
@@ -9573,11 +9324,8 @@
       <c r="Y83" t="s">
         <v>0</v>
       </c>
-      <c r="Z83" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9585,43 +9333,43 @@
         <v>136</v>
       </c>
       <c r="C84" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D84" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E84" s="3">
         <v>7.54</v>
       </c>
       <c r="F84" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G84" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H84" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I84" t="s">
         <v>35</v>
       </c>
       <c r="J84" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L84" t="s">
         <v>9</v>
       </c>
       <c r="M84" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P84" t="s">
         <v>0</v>
@@ -9653,11 +9401,8 @@
       <c r="Y84" t="s">
         <v>0</v>
       </c>
-      <c r="Z84" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9668,40 +9413,40 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E85" s="3">
         <v>10.1</v>
       </c>
       <c r="F85" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G85" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H85" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I85" t="s">
         <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L85" t="s">
         <v>9</v>
       </c>
       <c r="M85" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P85" t="s">
         <v>0</v>
@@ -9733,11 +9478,8 @@
       <c r="Y85" t="s">
         <v>0</v>
       </c>
-      <c r="Z85" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9748,40 +9490,40 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E86" s="3">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G86" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H86" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L86" t="s">
         <v>9</v>
       </c>
       <c r="M86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P86" t="s">
         <v>0</v>
@@ -9813,11 +9555,8 @@
       <c r="Y86" t="s">
         <v>0</v>
       </c>
-      <c r="Z86" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9828,40 +9567,40 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E87" s="3">
         <v>9.8000000000000007</v>
       </c>
       <c r="F87" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G87" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H87" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I87" t="s">
         <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L87" t="s">
         <v>9</v>
       </c>
       <c r="M87" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P87" t="s">
         <v>0</v>
@@ -9893,11 +9632,8 @@
       <c r="Y87" t="s">
         <v>0</v>
       </c>
-      <c r="Z87" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9905,43 +9641,43 @@
         <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D88" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E88" s="3">
         <v>9.59</v>
       </c>
       <c r="F88" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G88" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H88" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L88" t="s">
         <v>9</v>
       </c>
       <c r="M88" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P88" t="s">
         <v>0</v>
@@ -9973,11 +9709,8 @@
       <c r="Y88" t="s">
         <v>0</v>
       </c>
-      <c r="Z88" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9988,40 +9721,40 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E89" s="3">
         <v>10.4</v>
       </c>
       <c r="F89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G89" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I89" t="s">
         <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L89" t="s">
         <v>9</v>
       </c>
       <c r="M89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P89" t="s">
         <v>0</v>
@@ -10053,11 +9786,8 @@
       <c r="Y89" t="s">
         <v>0</v>
       </c>
-      <c r="Z89" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -10068,40 +9798,40 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E90" s="3">
         <v>10.73</v>
       </c>
       <c r="F90" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G90" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H90" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I90" t="s">
         <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L90" t="s">
         <v>9</v>
       </c>
       <c r="M90" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P90" t="s">
         <v>0</v>
@@ -10133,11 +9863,8 @@
       <c r="Y90" t="s">
         <v>0</v>
       </c>
-      <c r="Z90" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -10148,40 +9875,40 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E91" s="3">
         <v>10.26</v>
       </c>
       <c r="F91" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G91" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H91" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I91" t="s">
         <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L91" t="s">
         <v>9</v>
       </c>
       <c r="M91" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P91" t="s">
         <v>0</v>
@@ -10213,11 +9940,8 @@
       <c r="Y91" t="s">
         <v>0</v>
       </c>
-      <c r="Z91" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -10228,40 +9952,40 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E92" s="3">
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G92" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I92" t="s">
         <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L92" t="s">
         <v>9</v>
       </c>
       <c r="M92" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P92" t="s">
         <v>0</v>
@@ -10293,11 +10017,8 @@
       <c r="Y92" t="s">
         <v>0</v>
       </c>
-      <c r="Z92" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -10314,34 +10035,34 @@
         <v>6.3</v>
       </c>
       <c r="F93" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G93" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
       </c>
       <c r="J93" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L93" t="s">
         <v>9</v>
       </c>
       <c r="M93" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P93" t="s">
         <v>0</v>
@@ -10373,11 +10094,8 @@
       <c r="Y93" t="s">
         <v>0</v>
       </c>
-      <c r="Z93" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -10394,34 +10112,34 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G94" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L94" t="s">
         <v>9</v>
       </c>
       <c r="M94" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P94" t="s">
         <v>0</v>
@@ -10453,11 +10171,8 @@
       <c r="Y94" t="s">
         <v>0</v>
       </c>
-      <c r="Z94" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -10468,16 +10183,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E95" s="3">
         <v>8.99</v>
       </c>
       <c r="F95" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G95" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H95" t="s">
         <v>25</v>
@@ -10486,22 +10201,22 @@
         <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L95" t="s">
         <v>9</v>
       </c>
       <c r="M95" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P95" t="s">
         <v>0</v>
@@ -10533,11 +10248,8 @@
       <c r="Y95" t="s">
         <v>0</v>
       </c>
-      <c r="Z95" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -10548,40 +10260,40 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E96" s="3">
         <v>11.4</v>
       </c>
       <c r="F96" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G96" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H96" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
       </c>
       <c r="J96" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L96" t="s">
         <v>9</v>
       </c>
       <c r="M96" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P96" t="s">
         <v>0</v>
@@ -10613,11 +10325,8 @@
       <c r="Y96" t="s">
         <v>0</v>
       </c>
-      <c r="Z96" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -10628,40 +10337,40 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E97" s="3">
         <v>10.1</v>
       </c>
       <c r="F97" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G97" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H97" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I97" t="s">
         <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L97" t="s">
         <v>9</v>
       </c>
       <c r="M97" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="N97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P97" t="s">
         <v>0</v>
@@ -10693,11 +10402,8 @@
       <c r="Y97" t="s">
         <v>0</v>
       </c>
-      <c r="Z97" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -10705,43 +10411,43 @@
         <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E98" s="3">
         <v>9.9</v>
       </c>
       <c r="F98" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G98" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H98" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
       </c>
       <c r="J98" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L98" t="s">
         <v>9</v>
       </c>
       <c r="M98" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P98" t="s">
         <v>0</v>
@@ -10773,11 +10479,8 @@
       <c r="Y98" t="s">
         <v>0</v>
       </c>
-      <c r="Z98" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10788,40 +10491,40 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E99" s="3">
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G99" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H99" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I99" t="s">
         <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L99" t="s">
         <v>9</v>
       </c>
       <c r="M99" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P99" t="s">
         <v>0</v>
@@ -10853,11 +10556,8 @@
       <c r="Y99" t="s">
         <v>0</v>
       </c>
-      <c r="Z99" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10868,40 +10568,40 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E100" s="3">
         <v>10.4</v>
       </c>
       <c r="F100" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G100" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H100" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
       </c>
       <c r="J100" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L100" t="s">
         <v>9</v>
       </c>
       <c r="M100" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P100" t="s">
         <v>0</v>
@@ -10933,11 +10633,8 @@
       <c r="Y100" t="s">
         <v>0</v>
       </c>
-      <c r="Z100" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10948,40 +10645,40 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E101" s="3">
         <v>10.1</v>
       </c>
       <c r="F101" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G101" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H101" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I101" t="s">
         <v>26</v>
       </c>
       <c r="J101" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L101" t="s">
         <v>9</v>
       </c>
       <c r="M101" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P101" t="s">
         <v>0</v>
@@ -11013,11 +10710,8 @@
       <c r="Y101" t="s">
         <v>0</v>
       </c>
-      <c r="Z101" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -11025,43 +10719,43 @@
         <v>154</v>
       </c>
       <c r="C102" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E102" s="3">
         <v>7.86</v>
       </c>
       <c r="F102" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G102" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H102" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I102" t="s">
         <v>26</v>
       </c>
       <c r="J102" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L102" t="s">
         <v>9</v>
       </c>
       <c r="M102" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P102" t="s">
         <v>0</v>
@@ -11093,11 +10787,8 @@
       <c r="Y102" t="s">
         <v>0</v>
       </c>
-      <c r="Z102" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -11105,43 +10796,43 @@
         <v>155</v>
       </c>
       <c r="C103" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D103" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E103" s="3">
         <v>10.7</v>
       </c>
       <c r="F103" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G103" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H103" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
       </c>
       <c r="J103" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L103" t="s">
         <v>9</v>
       </c>
       <c r="M103" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P103" t="s">
         <v>0</v>
@@ -11173,11 +10864,8 @@
       <c r="Y103" t="s">
         <v>0</v>
       </c>
-      <c r="Z103" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -11194,34 +10882,34 @@
         <v>7.4</v>
       </c>
       <c r="F104" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G104" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H104" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L104" t="s">
         <v>9</v>
       </c>
       <c r="M104" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P104" t="s">
         <v>0</v>
@@ -11253,11 +10941,8 @@
       <c r="Y104" t="s">
         <v>0</v>
       </c>
-      <c r="Z104" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -11265,43 +10950,43 @@
         <v>157</v>
       </c>
       <c r="C105" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D105" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E105" s="3">
         <v>8.98</v>
       </c>
       <c r="F105" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G105" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H105" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
       </c>
       <c r="J105" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L105" t="s">
         <v>9</v>
       </c>
       <c r="M105" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P105" t="s">
         <v>0</v>
@@ -11333,11 +11018,8 @@
       <c r="Y105" t="s">
         <v>0</v>
       </c>
-      <c r="Z105" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -11348,40 +11030,40 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E106" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="F106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G106" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H106" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
       </c>
       <c r="J106" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="L106" t="s">
         <v>9</v>
       </c>
       <c r="M106" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P106" t="s">
         <v>0</v>
@@ -11413,11 +11095,8 @@
       <c r="Y106" t="s">
         <v>0</v>
       </c>
-      <c r="Z106" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -11428,16 +11107,16 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E107" s="3">
         <v>9.1</v>
       </c>
       <c r="F107" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G107" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H107" t="s">
         <v>25</v>
@@ -11446,22 +11125,22 @@
         <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="L107" t="s">
         <v>9</v>
       </c>
       <c r="M107" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P107" t="s">
         <v>0</v>
@@ -11493,11 +11172,8 @@
       <c r="Y107" t="s">
         <v>0</v>
       </c>
-      <c r="Z107" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -11514,34 +11190,34 @@
         <v>8.85</v>
       </c>
       <c r="F108" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G108" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I108" t="s">
         <v>35</v>
       </c>
       <c r="J108" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L108" t="s">
         <v>9</v>
       </c>
       <c r="M108" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N108" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O108" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P108" t="s">
         <v>0</v>
@@ -11573,11 +11249,8 @@
       <c r="Y108" t="s">
         <v>0</v>
       </c>
-      <c r="Z108" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -11588,40 +11261,40 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E109" s="3">
         <v>10.7</v>
       </c>
       <c r="F109" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G109" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H109" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="L109" t="s">
         <v>9</v>
       </c>
       <c r="M109" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P109" t="s">
         <v>0</v>
@@ -11653,11 +11326,8 @@
       <c r="Y109" t="s">
         <v>0</v>
       </c>
-      <c r="Z109" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -11668,40 +11338,40 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E110" s="3">
         <v>10.6</v>
       </c>
       <c r="F110" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G110" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H110" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I110" t="s">
         <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L110" t="s">
         <v>9</v>
       </c>
       <c r="M110" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P110" t="s">
         <v>0</v>
@@ -11733,11 +11403,8 @@
       <c r="Y110" t="s">
         <v>0</v>
       </c>
-      <c r="Z110" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -11748,40 +11415,40 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E111" s="3">
         <v>8.92</v>
       </c>
       <c r="F111" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G111" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I111" t="s">
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L111" t="s">
         <v>9</v>
       </c>
       <c r="M111" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P111" t="s">
         <v>0</v>
@@ -11813,11 +11480,8 @@
       <c r="Y111" t="s">
         <v>0</v>
       </c>
-      <c r="Z111" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:25">
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6">
